--- a/artfynd/A 38128-2024 artfynd.xlsx
+++ b/artfynd/A 38128-2024 artfynd.xlsx
@@ -4000,7 +4000,7 @@
         <v>130881603</v>
       </c>
       <c r="B31" t="n">
-        <v>91824</v>
+        <v>91828</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 38128-2024 artfynd.xlsx
+++ b/artfynd/A 38128-2024 artfynd.xlsx
@@ -4000,7 +4000,7 @@
         <v>130881603</v>
       </c>
       <c r="B31" t="n">
-        <v>91828</v>
+        <v>91829</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>

--- a/artfynd/A 38128-2024 artfynd.xlsx
+++ b/artfynd/A 38128-2024 artfynd.xlsx
@@ -4000,7 +4000,7 @@
         <v>130881603</v>
       </c>
       <c r="B31" t="n">
-        <v>91829</v>
+        <v>91830</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
